--- a/Labb3_list1.xlsx
+++ b/Labb3_list1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bb53ab7c23eca98/Dokument/Databasteknik/Labb 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\axela\Documents\database\lab3_database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_925E8373E0BA406D18D03329FB53C8270C465376" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9F7402FF-EAB5-46D5-832D-003F8B03B17C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90518F3-9DB0-4CDA-8462-B142EABAB975}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
